--- a/mathTransformed/HMPSTT_(2021-02-02)_39_4.xlsx
+++ b/mathTransformed/HMPSTT_(2021-02-02)_39_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -483,6 +488,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>G H S K B Halli</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -510,6 +520,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>G J  C H S LaksmipuraHarapanahalli</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -537,6 +552,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>G H S Kakubalu Hosapet</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -564,6 +584,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>G H S Tharedakuppe</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Kunigal Tumkur</t>
         </is>
       </c>
@@ -591,6 +616,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>G H S (Girls) Siruguppa</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -618,6 +648,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>S S R H S TharuruSira</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -643,7 +678,8 @@
           <t>E SUNIL KUMAR</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>G H S Karur Siruguppa Bellary</t>
         </is>
@@ -670,7 +706,8 @@
           <t>G ASHOKA</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>K P S Moka Bellary</t>
         </is>
@@ -699,6 +736,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>G H S M ThumbgudiSandur</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -726,6 +768,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>G H S 15th Ward N C Hospet</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -753,6 +800,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>G H S ByasigideriH B Halli</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -778,7 +830,8 @@
           <t>HAREESHA T</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>G H S Kallukambha Kurugodu Bellary</t>
         </is>
@@ -807,6 +860,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>G H S H Verapur Kurugodu</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -834,6 +892,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>S M A H S SugurTiptur</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -861,6 +924,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>K P S Haluvagallu Harapanahalli</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -888,6 +956,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>G H S DV Halli</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -915,6 +988,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>G H S Chowdapura Kudligi</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -942,6 +1020,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>G H S Yakarlahally</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -969,6 +1052,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>Nirmala Kamat High SchoolAlvekodi Kumta</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Uttarakannad</t>
         </is>
       </c>
@@ -996,6 +1084,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>S U P H S Devarayapattana</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1023,6 +1116,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>G H S MydurHarapanahalli</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1050,6 +1148,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>S B H S HosakereGubbi</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -1077,6 +1180,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>S S S High School HH Pura Pavagad</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -1104,6 +1212,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>G G H S HosahallyKudligi</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1131,6 +1244,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>G H S BudanurHuvinahadagali</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1158,6 +1276,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>G G HS Sandur</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1185,6 +1308,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>G H S HagarigajapuraHarapanahalli</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1212,6 +1340,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>S U J S High School Hiralldum</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1237,7 +1370,8 @@
           <t>SABDAR ULLA KHAN</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
         <is>
           <t>Hazrath Momin Basha Tumkur</t>
         </is>
@@ -1266,6 +1400,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>G H S Gidadagalahalli</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -1293,6 +1432,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>T B Dam H S Hospet</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1320,6 +1464,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>P V S B C High School Hosapete</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1347,6 +1496,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>S T K G H S Mahajanadhhalli</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Hadgali Bellary</t>
         </is>
       </c>
@@ -1372,7 +1526,8 @@
           <t>T SRILATHA</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
         <is>
           <t>T B Dam HS Hospet</t>
         </is>
@@ -1401,6 +1556,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>G H S Balakundi</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Siruguppa Bellary</t>
         </is>
       </c>
@@ -1428,6 +1588,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>S E S Girls High School Sandur</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1452,6 +1617,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>Sri Ranganatha High SchoolSira</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -1476,6 +1646,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>S C S V M Sandur</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Bellary</t>
         </is>
       </c>
@@ -1499,6 +1674,11 @@
         </is>
       </c>
       <c r="F41" t="inlineStr">
+        <is>
+          <t>GHS GoverahalliHarpanahalli</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
         <is>
           <t>Bellar</t>
         </is>

--- a/mathTransformed/HMPSTT_(2021-02-02)_39_4.xlsx
+++ b/mathTransformed/HMPSTT_(2021-02-02)_39_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,6 @@
           <t>E SUNIL KUMAR</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
           <t>G H S Karur Siruguppa Bellary</t>
@@ -706,7 +705,6 @@
           <t>G ASHOKA</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
           <t>K P S Moka Bellary</t>
@@ -741,7 +739,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -773,7 +771,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -805,7 +803,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -830,7 +828,6 @@
           <t>HAREESHA T</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
           <t>G H S Kallukambha Kurugodu Bellary</t>
@@ -865,7 +862,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -897,7 +894,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -929,7 +926,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -961,7 +958,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -993,7 +990,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1025,7 +1022,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1086,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1118,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1150,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1182,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1214,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1246,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1278,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1310,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1345,7 +1342,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1367,6 @@
           <t>SABDAR ULLA KHAN</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
           <t>Hazrath Momin Basha Tumkur</t>
@@ -1405,7 +1401,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1433,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1469,7 +1465,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1526,7 +1522,6 @@
           <t>T SRILATHA</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
           <t>T B Dam HS Hospet</t>
@@ -1593,7 +1588,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1622,7 +1617,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1646,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>

--- a/mathTransformed/HMPSTT_(2021-02-02)_39_4.xlsx
+++ b/mathTransformed/HMPSTT_(2021-02-02)_39_4.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Kunigal Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -680,7 +680,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>G H S Karur Siruguppa Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -707,7 +707,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>K P S Moka Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -830,7 +830,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>G H S Kallukambha Kurugodu Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Uttarakannad</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hazrath Momin Basha Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hadgali Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>T B Dam HS Hospet</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Siruguppa Bellary</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Bellar</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
